--- a/BabyTallyTemplate.xlsx
+++ b/BabyTallyTemplate.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22111"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_6e2\AC\Temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B4FB87A-C209-4684-AB5A-D38F94173E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" xr2:uid="{E268F807-002B-4E41-9DA9-A6C546C37D7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Votes" sheetId="1" r:id="rId1"/>
@@ -21,9 +15,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Votes!$A$1:$R$17</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -132,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -406,9 +400,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,6 +413,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -536,7 +530,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -730,18 +724,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F557000-AB25-4A11-BD69-5F5847C4F224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR10" sqref="B10:AR10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1157,7 +1151,7 @@
       <c r="B10" s="41">
         <v>5</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="36"/>
@@ -1207,24 +1201,24 @@
         <v>12</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
@@ -1254,28 +1248,28 @@
       <c r="AS11" s="16"/>
     </row>
     <row r="12" spans="1:45" s="16" customFormat="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>70</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="1"/>
@@ -1422,11 +1416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4951635B-FEA3-4BB3-8ABE-F761897817A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1656,22 +1650,22 @@
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
       <c r="B4" s="22"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
@@ -1706,171 +1700,171 @@
       <c r="B5" s="24">
         <v>43723</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <f>MAX(0,temp_cost!C5-ABS(temp_value!C5-Votes!C5))</f>
         <v>20</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <f>MAX(0,temp_cost!D5-ABS(temp_value!D5-Votes!D5))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <f>MAX(0,temp_cost!E5-ABS(temp_value!E5-Votes!E5))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <f>MAX(0,temp_cost!F5-ABS(temp_value!F5-Votes!F5))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <f>MAX(0,temp_cost!G5-ABS(temp_value!G5-Votes!G5))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="44">
         <f>MAX(0,temp_cost!H5-ABS(temp_value!H5-Votes!H5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="44">
         <f>MAX(0,temp_cost!I5-ABS(temp_value!I5-Votes!I5))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="44">
         <f>MAX(0,temp_cost!J5-ABS(temp_value!J5-Votes!J5))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="44">
         <f>MAX(0,temp_cost!K5-ABS(temp_value!K5-Votes!K5))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="44">
         <f>MAX(0,temp_cost!L5-ABS(temp_value!L5-Votes!L5))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="44">
         <f>MAX(0,temp_cost!M5-ABS(temp_value!M5-Votes!M5))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="44">
         <f>MAX(0,temp_cost!N5-ABS(temp_value!N5-Votes!N5))</f>
         <v>0</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="44">
         <f>MAX(0,temp_cost!O5-ABS(temp_value!O5-Votes!O5))</f>
         <v>0</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="44">
         <f>MAX(0,temp_cost!P5-ABS(temp_value!P5-Votes!P5))</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="44">
         <f>MAX(0,temp_cost!Q5-ABS(temp_value!Q5-Votes!Q5))</f>
         <v>0</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="44">
         <f>MAX(0,temp_cost!R5-ABS(temp_value!R5-Votes!R5))</f>
         <v>0</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="44">
         <f>MAX(0,temp_cost!S5-ABS(temp_value!S5-Votes!S5))</f>
         <v>0</v>
       </c>
-      <c r="T5" s="45">
+      <c r="T5" s="44">
         <f>MAX(0,temp_cost!T5-ABS(temp_value!T5-Votes!T5))</f>
         <v>0</v>
       </c>
-      <c r="U5" s="45">
+      <c r="U5" s="44">
         <f>MAX(0,temp_cost!U5-ABS(temp_value!U5-Votes!U5))</f>
         <v>0</v>
       </c>
-      <c r="V5" s="45">
+      <c r="V5" s="44">
         <f>MAX(0,temp_cost!V5-ABS(temp_value!V5-Votes!V5))</f>
         <v>0</v>
       </c>
-      <c r="W5" s="45">
+      <c r="W5" s="44">
         <f>MAX(0,temp_cost!W5-ABS(temp_value!W5-Votes!W5))</f>
         <v>0</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="44">
         <f>MAX(0,temp_cost!X5-ABS(temp_value!X5-Votes!X5))</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="44">
         <f>MAX(0,temp_cost!Y5-ABS(temp_value!Y5-Votes!Y5))</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="45">
+      <c r="Z5" s="44">
         <f>MAX(0,temp_cost!Z5-ABS(temp_value!Z5-Votes!Z5))</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="45">
+      <c r="AA5" s="44">
         <f>MAX(0,temp_cost!AA5-ABS(temp_value!AA5-Votes!AA5))</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="45">
+      <c r="AB5" s="44">
         <f>MAX(0,temp_cost!AB5-ABS(temp_value!AB5-Votes!AB5))</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="45">
+      <c r="AC5" s="44">
         <f>MAX(0,temp_cost!AC5-ABS(temp_value!AC5-Votes!AC5))</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="45">
+      <c r="AD5" s="44">
         <f>MAX(0,temp_cost!AD5-ABS(temp_value!AD5-Votes!AD5))</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="45">
+      <c r="AE5" s="44">
         <f>MAX(0,temp_cost!AE5-ABS(temp_value!AE5-Votes!AE5))</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="45">
+      <c r="AF5" s="44">
         <f>MAX(0,temp_cost!AF5-ABS(temp_value!AF5-Votes!AF5))</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="45">
+      <c r="AG5" s="44">
         <f>MAX(0,temp_cost!AG5-ABS(temp_value!AG5-Votes!AG5))</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="45">
+      <c r="AH5" s="44">
         <f>MAX(0,temp_cost!AH5-ABS(temp_value!AH5-Votes!AH5))</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="45">
+      <c r="AI5" s="44">
         <f>MAX(0,temp_cost!AI5-ABS(temp_value!AI5-Votes!AI5))</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="45">
+      <c r="AJ5" s="44">
         <f>MAX(0,temp_cost!AJ5-ABS(temp_value!AJ5-Votes!AJ5))</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="45">
+      <c r="AK5" s="44">
         <f>MAX(0,temp_cost!AK5-ABS(temp_value!AK5-Votes!AK5))</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="45">
+      <c r="AL5" s="44">
         <f>MAX(0,temp_cost!AL5-ABS(temp_value!AL5-Votes!AL5))</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="45">
+      <c r="AM5" s="44">
         <f>MAX(0,temp_cost!AM5-ABS(temp_value!AM5-Votes!AM5))</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="45">
+      <c r="AN5" s="44">
         <f>MAX(0,temp_cost!AN5-ABS(temp_value!AN5-Votes!AN5))</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="45">
+      <c r="AO5" s="44">
         <f>MAX(0,temp_cost!AO5-ABS(temp_value!AO5-Votes!AO5))</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="45">
+      <c r="AP5" s="44">
         <f>MAX(0,temp_cost!AP5-ABS(temp_value!AP5-Votes!AP5))</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="45">
+      <c r="AQ5" s="44">
         <f>MAX(0,temp_cost!AQ5-ABS(temp_value!AQ5-Votes!AQ5))</f>
         <v>0</v>
       </c>
-      <c r="AR5" s="45">
+      <c r="AR5" s="44">
         <f>MAX(0,temp_cost!AR5-ABS(temp_value!AR5-Votes!AR5))</f>
         <v>0</v>
       </c>
@@ -1882,171 +1876,171 @@
       <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <f>IF(temp_value!C6=Votes!C6,temp_cost!C6,0)</f>
         <v>20</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <f>IF(temp_value!D6=Votes!D6,temp_cost!D6,0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <f>IF(temp_value!E6=Votes!E6,temp_cost!E6,0)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <f>IF(temp_value!F6=Votes!F6,temp_cost!F6,0)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <f>IF(temp_value!G6=Votes!G6,temp_cost!G6,0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <f>IF(temp_value!H6=Votes!H6,temp_cost!H6,0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="44">
         <f>IF(temp_value!I6=Votes!I6,temp_cost!I6,0)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="44">
         <f>IF(temp_value!J6=Votes!J6,temp_cost!J6,0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="44">
         <f>IF(temp_value!K6=Votes!K6,temp_cost!K6,0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="44">
         <f>IF(temp_value!L6=Votes!L6,temp_cost!L6,0)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="44">
         <f>IF(temp_value!M6=Votes!M6,temp_cost!M6,0)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="44">
         <f>IF(temp_value!N6=Votes!N6,temp_cost!N6,0)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="44">
         <f>IF(temp_value!O6=Votes!O6,temp_cost!O6,0)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="44">
         <f>IF(temp_value!P6=Votes!P6,temp_cost!P6,0)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="44">
         <f>IF(temp_value!Q6=Votes!Q6,temp_cost!Q6,0)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="44">
         <f>IF(temp_value!R6=Votes!R6,temp_cost!R6,0)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="45">
+      <c r="S6" s="44">
         <f>IF(temp_value!S6=Votes!S6,temp_cost!S6,0)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="45">
+      <c r="T6" s="44">
         <f>IF(temp_value!T6=Votes!T6,temp_cost!T6,0)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="45">
+      <c r="U6" s="44">
         <f>IF(temp_value!U6=Votes!U6,temp_cost!U6,0)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="45">
+      <c r="V6" s="44">
         <f>IF(temp_value!V6=Votes!V6,temp_cost!V6,0)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="45">
+      <c r="W6" s="44">
         <f>IF(temp_value!W6=Votes!W6,temp_cost!W6,0)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="45">
+      <c r="X6" s="44">
         <f>IF(temp_value!X6=Votes!X6,temp_cost!X6,0)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="45">
+      <c r="Y6" s="44">
         <f>IF(temp_value!Y6=Votes!Y6,temp_cost!Y6,0)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="45">
+      <c r="Z6" s="44">
         <f>IF(temp_value!Z6=Votes!Z6,temp_cost!Z6,0)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="45">
+      <c r="AA6" s="44">
         <f>IF(temp_value!AA6=Votes!AA6,temp_cost!AA6,0)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="45">
+      <c r="AB6" s="44">
         <f>IF(temp_value!AB6=Votes!AB6,temp_cost!AB6,0)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="45">
+      <c r="AC6" s="44">
         <f>IF(temp_value!AC6=Votes!AC6,temp_cost!AC6,0)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="45">
+      <c r="AD6" s="44">
         <f>IF(temp_value!AD6=Votes!AD6,temp_cost!AD6,0)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="45">
+      <c r="AE6" s="44">
         <f>IF(temp_value!AE6=Votes!AE6,temp_cost!AE6,0)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="45">
+      <c r="AF6" s="44">
         <f>IF(temp_value!AF6=Votes!AF6,temp_cost!AF6,0)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="45">
+      <c r="AG6" s="44">
         <f>IF(temp_value!AG6=Votes!AG6,temp_cost!AG6,0)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="45">
+      <c r="AH6" s="44">
         <f>IF(temp_value!AH6=Votes!AH6,temp_cost!AH6,0)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="45">
+      <c r="AI6" s="44">
         <f>IF(temp_value!AI6=Votes!AI6,temp_cost!AI6,0)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="45">
+      <c r="AJ6" s="44">
         <f>IF(temp_value!AJ6=Votes!AJ6,temp_cost!AJ6,0)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="45">
+      <c r="AK6" s="44">
         <f>IF(temp_value!AK6=Votes!AK6,temp_cost!AK6,0)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="45">
+      <c r="AL6" s="44">
         <f>IF(temp_value!AL6=Votes!AL6,temp_cost!AL6,0)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="45">
+      <c r="AM6" s="44">
         <f>IF(temp_value!AM6=Votes!AM6,temp_cost!AM6,0)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="45">
+      <c r="AN6" s="44">
         <f>IF(temp_value!AN6=Votes!AN6,temp_cost!AN6,0)</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="45">
+      <c r="AO6" s="44">
         <f>IF(temp_value!AO6=Votes!AO6,temp_cost!AO6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP6" s="45">
+      <c r="AP6" s="44">
         <f>IF(temp_value!AP6=Votes!AP6,temp_cost!AP6,0)</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="45">
+      <c r="AQ6" s="44">
         <f>IF(temp_value!AQ6=Votes!AQ6,temp_cost!AQ6,0)</f>
         <v>0</v>
       </c>
-      <c r="AR6" s="45">
+      <c r="AR6" s="44">
         <f>IF(temp_value!AR6=Votes!AR6,temp_cost!AR6,0)</f>
         <v>0</v>
       </c>
@@ -2059,173 +2053,173 @@
         <f>7*16+8</f>
         <v>120</v>
       </c>
-      <c r="C7" s="45">
-        <f>MAX(0,temp_cost!C7-ABS(temp_value!C7-Votes!C7))</f>
-        <v>10</v>
-      </c>
-      <c r="D7" s="45">
-        <f>MAX(0,temp_cost!D7-ABS(temp_value!D7-Votes!D7))</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="45">
-        <f>MAX(0,temp_cost!E7-ABS(temp_value!E7-Votes!E7))</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="45">
-        <f>MAX(0,temp_cost!F7-ABS(temp_value!F7-Votes!F7))</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="45">
-        <f>MAX(0,temp_cost!G7-ABS(temp_value!G7-Votes!G7))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="45">
-        <f>MAX(0,temp_cost!H7-ABS(temp_value!H7-Votes!H7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="45">
-        <f>MAX(0,temp_cost!I7-ABS(temp_value!I7-Votes!I7))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="45">
-        <f>MAX(0,temp_cost!J7-ABS(temp_value!J7-Votes!J7))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="45">
-        <f>MAX(0,temp_cost!K7-ABS(temp_value!K7-Votes!K7))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="45">
-        <f>MAX(0,temp_cost!L7-ABS(temp_value!L7-Votes!L7))</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="45">
-        <f>MAX(0,temp_cost!M7-ABS(temp_value!M7-Votes!M7))</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="45">
-        <f>MAX(0,temp_cost!N7-ABS(temp_value!N7-Votes!N7))</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="45">
-        <f>MAX(0,temp_cost!O7-ABS(temp_value!O7-Votes!O7))</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="45">
-        <f>MAX(0,temp_cost!P7-ABS(temp_value!P7-Votes!P7))</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="45">
-        <f>MAX(0,temp_cost!Q7-ABS(temp_value!Q7-Votes!Q7))</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="45">
-        <f>MAX(0,temp_cost!R7-ABS(temp_value!R7-Votes!R7))</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="45">
-        <f>MAX(0,temp_cost!S7-ABS(temp_value!S7-Votes!S7))</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="45">
-        <f>MAX(0,temp_cost!T7-ABS(temp_value!T7-Votes!T7))</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="45">
-        <f>MAX(0,temp_cost!U7-ABS(temp_value!U7-Votes!U7))</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="45">
-        <f>MAX(0,temp_cost!V7-ABS(temp_value!V7-Votes!V7))</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="45">
-        <f>MAX(0,temp_cost!W7-ABS(temp_value!W7-Votes!W7))</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="45">
-        <f>MAX(0,temp_cost!X7-ABS(temp_value!X7-Votes!X7))</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="45">
-        <f>MAX(0,temp_cost!Y7-ABS(temp_value!Y7-Votes!Y7))</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="45">
-        <f>MAX(0,temp_cost!Z7-ABS(temp_value!Z7-Votes!Z7))</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="45">
-        <f>MAX(0,temp_cost!AA7-ABS(temp_value!AA7-Votes!AA7))</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="45">
-        <f>MAX(0,temp_cost!AB7-ABS(temp_value!AB7-Votes!AB7))</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="45">
-        <f>MAX(0,temp_cost!AC7-ABS(temp_value!AC7-Votes!AC7))</f>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="45">
-        <f>MAX(0,temp_cost!AD7-ABS(temp_value!AD7-Votes!AD7))</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="45">
-        <f>MAX(0,temp_cost!AE7-ABS(temp_value!AE7-Votes!AE7))</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="45">
-        <f>MAX(0,temp_cost!AF7-ABS(temp_value!AF7-Votes!AF7))</f>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="45">
-        <f>MAX(0,temp_cost!AG7-ABS(temp_value!AG7-Votes!AG7))</f>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="45">
-        <f>MAX(0,temp_cost!AH7-ABS(temp_value!AH7-Votes!AH7))</f>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="45">
-        <f>MAX(0,temp_cost!AI7-ABS(temp_value!AI7-Votes!AI7))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="45">
-        <f>MAX(0,temp_cost!AJ7-ABS(temp_value!AJ7-Votes!AJ7))</f>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="45">
-        <f>MAX(0,temp_cost!AK7-ABS(temp_value!AK7-Votes!AK7))</f>
-        <v>0</v>
-      </c>
-      <c r="AL7" s="45">
-        <f>MAX(0,temp_cost!AL7-ABS(temp_value!AL7-Votes!AL7))</f>
-        <v>0</v>
-      </c>
-      <c r="AM7" s="45">
-        <f>MAX(0,temp_cost!AM7-ABS(temp_value!AM7-Votes!AM7))</f>
-        <v>0</v>
-      </c>
-      <c r="AN7" s="45">
-        <f>MAX(0,temp_cost!AN7-ABS(temp_value!AN7-Votes!AN7))</f>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="45">
-        <f>MAX(0,temp_cost!AO7-ABS(temp_value!AO7-Votes!AO7))</f>
-        <v>0</v>
-      </c>
-      <c r="AP7" s="45">
-        <f>MAX(0,temp_cost!AP7-ABS(temp_value!AP7-Votes!AP7))</f>
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="45">
-        <f>MAX(0,temp_cost!AQ7-ABS(temp_value!AQ7-Votes!AQ7))</f>
-        <v>0</v>
-      </c>
-      <c r="AR7" s="45">
-        <f>MAX(0,temp_cost!AR7-ABS(temp_value!AR7-Votes!AR7))</f>
-        <v>0</v>
+      <c r="C7" s="44">
+        <f>MAX(0,temp_cost!C7-ABS(temp_value!C7-Votes!C7)/16)</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="44">
+        <f>MAX(0,temp_cost!D7-ABS(temp_value!D7-Votes!D7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="44">
+        <f>MAX(0,temp_cost!E7-ABS(temp_value!E7-Votes!E7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="44">
+        <f>MAX(0,temp_cost!F7-ABS(temp_value!F7-Votes!F7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="44">
+        <f>MAX(0,temp_cost!G7-ABS(temp_value!G7-Votes!G7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="44">
+        <f>MAX(0,temp_cost!H7-ABS(temp_value!H7-Votes!H7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="44">
+        <f>MAX(0,temp_cost!I7-ABS(temp_value!I7-Votes!I7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="44">
+        <f>MAX(0,temp_cost!J7-ABS(temp_value!J7-Votes!J7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K7" s="44">
+        <f>MAX(0,temp_cost!K7-ABS(temp_value!K7-Votes!K7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="44">
+        <f>MAX(0,temp_cost!L7-ABS(temp_value!L7-Votes!L7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="M7" s="44">
+        <f>MAX(0,temp_cost!M7-ABS(temp_value!M7-Votes!M7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="N7" s="44">
+        <f>MAX(0,temp_cost!N7-ABS(temp_value!N7-Votes!N7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="O7" s="44">
+        <f>MAX(0,temp_cost!O7-ABS(temp_value!O7-Votes!O7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="P7" s="44">
+        <f>MAX(0,temp_cost!P7-ABS(temp_value!P7-Votes!P7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q7" s="44">
+        <f>MAX(0,temp_cost!Q7-ABS(temp_value!Q7-Votes!Q7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="R7" s="44">
+        <f>MAX(0,temp_cost!R7-ABS(temp_value!R7-Votes!R7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="S7" s="44">
+        <f>MAX(0,temp_cost!S7-ABS(temp_value!S7-Votes!S7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="T7" s="44">
+        <f>MAX(0,temp_cost!T7-ABS(temp_value!T7-Votes!T7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="U7" s="44">
+        <f>MAX(0,temp_cost!U7-ABS(temp_value!U7-Votes!U7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="V7" s="44">
+        <f>MAX(0,temp_cost!V7-ABS(temp_value!V7-Votes!V7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="W7" s="44">
+        <f>MAX(0,temp_cost!W7-ABS(temp_value!W7-Votes!W7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="X7" s="44">
+        <f>MAX(0,temp_cost!X7-ABS(temp_value!X7-Votes!X7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Y7" s="44">
+        <f>MAX(0,temp_cost!Y7-ABS(temp_value!Y7-Votes!Y7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Z7" s="44">
+        <f>MAX(0,temp_cost!Z7-ABS(temp_value!Z7-Votes!Z7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AA7" s="44">
+        <f>MAX(0,temp_cost!AA7-ABS(temp_value!AA7-Votes!AA7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AB7" s="44">
+        <f>MAX(0,temp_cost!AB7-ABS(temp_value!AB7-Votes!AB7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AC7" s="44">
+        <f>MAX(0,temp_cost!AC7-ABS(temp_value!AC7-Votes!AC7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AD7" s="44">
+        <f>MAX(0,temp_cost!AD7-ABS(temp_value!AD7-Votes!AD7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AE7" s="44">
+        <f>MAX(0,temp_cost!AE7-ABS(temp_value!AE7-Votes!AE7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AF7" s="44">
+        <f>MAX(0,temp_cost!AF7-ABS(temp_value!AF7-Votes!AF7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AG7" s="44">
+        <f>MAX(0,temp_cost!AG7-ABS(temp_value!AG7-Votes!AG7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AH7" s="44">
+        <f>MAX(0,temp_cost!AH7-ABS(temp_value!AH7-Votes!AH7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AI7" s="44">
+        <f>MAX(0,temp_cost!AI7-ABS(temp_value!AI7-Votes!AI7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AJ7" s="44">
+        <f>MAX(0,temp_cost!AJ7-ABS(temp_value!AJ7-Votes!AJ7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AK7" s="44">
+        <f>MAX(0,temp_cost!AK7-ABS(temp_value!AK7-Votes!AK7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AL7" s="44">
+        <f>MAX(0,temp_cost!AL7-ABS(temp_value!AL7-Votes!AL7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AM7" s="44">
+        <f>MAX(0,temp_cost!AM7-ABS(temp_value!AM7-Votes!AM7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AN7" s="44">
+        <f>MAX(0,temp_cost!AN7-ABS(temp_value!AN7-Votes!AN7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AO7" s="44">
+        <f>MAX(0,temp_cost!AO7-ABS(temp_value!AO7-Votes!AO7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AP7" s="44">
+        <f>MAX(0,temp_cost!AP7-ABS(temp_value!AP7-Votes!AP7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AQ7" s="44">
+        <f>MAX(0,temp_cost!AQ7-ABS(temp_value!AQ7-Votes!AQ7)/16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AR7" s="44">
+        <f>MAX(0,temp_cost!AR7-ABS(temp_value!AR7-Votes!AR7)/16)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -2235,171 +2229,171 @@
       <c r="B8" s="23">
         <v>20</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <f>MAX(0,temp_cost!C8-ABS(temp_value!C8-Votes!C8))</f>
         <v>10</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <f>MAX(0,temp_cost!D8-ABS(temp_value!D8-Votes!D8))</f>
         <v>0</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <f>MAX(0,temp_cost!E8-ABS(temp_value!E8-Votes!E8))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <f>MAX(0,temp_cost!F8-ABS(temp_value!F8-Votes!F8))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <f>MAX(0,temp_cost!G8-ABS(temp_value!G8-Votes!G8))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <f>MAX(0,temp_cost!H8-ABS(temp_value!H8-Votes!H8))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="44">
         <f>MAX(0,temp_cost!I8-ABS(temp_value!I8-Votes!I8))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="44">
         <f>MAX(0,temp_cost!J8-ABS(temp_value!J8-Votes!J8))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="44">
         <f>MAX(0,temp_cost!K8-ABS(temp_value!K8-Votes!K8))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="44">
         <f>MAX(0,temp_cost!L8-ABS(temp_value!L8-Votes!L8))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="44">
         <f>MAX(0,temp_cost!M8-ABS(temp_value!M8-Votes!M8))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="44">
         <f>MAX(0,temp_cost!N8-ABS(temp_value!N8-Votes!N8))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="44">
         <f>MAX(0,temp_cost!O8-ABS(temp_value!O8-Votes!O8))</f>
         <v>0</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="44">
         <f>MAX(0,temp_cost!P8-ABS(temp_value!P8-Votes!P8))</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="44">
         <f>MAX(0,temp_cost!Q8-ABS(temp_value!Q8-Votes!Q8))</f>
         <v>0</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="44">
         <f>MAX(0,temp_cost!R8-ABS(temp_value!R8-Votes!R8))</f>
         <v>0</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="44">
         <f>MAX(0,temp_cost!S8-ABS(temp_value!S8-Votes!S8))</f>
         <v>0</v>
       </c>
-      <c r="T8" s="45">
+      <c r="T8" s="44">
         <f>MAX(0,temp_cost!T8-ABS(temp_value!T8-Votes!T8))</f>
         <v>0</v>
       </c>
-      <c r="U8" s="45">
+      <c r="U8" s="44">
         <f>MAX(0,temp_cost!U8-ABS(temp_value!U8-Votes!U8))</f>
         <v>0</v>
       </c>
-      <c r="V8" s="45">
+      <c r="V8" s="44">
         <f>MAX(0,temp_cost!V8-ABS(temp_value!V8-Votes!V8))</f>
         <v>0</v>
       </c>
-      <c r="W8" s="45">
+      <c r="W8" s="44">
         <f>MAX(0,temp_cost!W8-ABS(temp_value!W8-Votes!W8))</f>
         <v>0</v>
       </c>
-      <c r="X8" s="45">
+      <c r="X8" s="44">
         <f>MAX(0,temp_cost!X8-ABS(temp_value!X8-Votes!X8))</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="45">
+      <c r="Y8" s="44">
         <f>MAX(0,temp_cost!Y8-ABS(temp_value!Y8-Votes!Y8))</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="45">
+      <c r="Z8" s="44">
         <f>MAX(0,temp_cost!Z8-ABS(temp_value!Z8-Votes!Z8))</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="45">
+      <c r="AA8" s="44">
         <f>MAX(0,temp_cost!AA8-ABS(temp_value!AA8-Votes!AA8))</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="45">
+      <c r="AB8" s="44">
         <f>MAX(0,temp_cost!AB8-ABS(temp_value!AB8-Votes!AB8))</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="45">
+      <c r="AC8" s="44">
         <f>MAX(0,temp_cost!AC8-ABS(temp_value!AC8-Votes!AC8))</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="45">
+      <c r="AD8" s="44">
         <f>MAX(0,temp_cost!AD8-ABS(temp_value!AD8-Votes!AD8))</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="45">
+      <c r="AE8" s="44">
         <f>MAX(0,temp_cost!AE8-ABS(temp_value!AE8-Votes!AE8))</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="45">
+      <c r="AF8" s="44">
         <f>MAX(0,temp_cost!AF8-ABS(temp_value!AF8-Votes!AF8))</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="45">
+      <c r="AG8" s="44">
         <f>MAX(0,temp_cost!AG8-ABS(temp_value!AG8-Votes!AG8))</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="45">
+      <c r="AH8" s="44">
         <f>MAX(0,temp_cost!AH8-ABS(temp_value!AH8-Votes!AH8))</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="45">
+      <c r="AI8" s="44">
         <f>MAX(0,temp_cost!AI8-ABS(temp_value!AI8-Votes!AI8))</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="45">
+      <c r="AJ8" s="44">
         <f>MAX(0,temp_cost!AJ8-ABS(temp_value!AJ8-Votes!AJ8))</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="45">
+      <c r="AK8" s="44">
         <f>MAX(0,temp_cost!AK8-ABS(temp_value!AK8-Votes!AK8))</f>
         <v>0</v>
       </c>
-      <c r="AL8" s="45">
+      <c r="AL8" s="44">
         <f>MAX(0,temp_cost!AL8-ABS(temp_value!AL8-Votes!AL8))</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="45">
+      <c r="AM8" s="44">
         <f>MAX(0,temp_cost!AM8-ABS(temp_value!AM8-Votes!AM8))</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="45">
+      <c r="AN8" s="44">
         <f>MAX(0,temp_cost!AN8-ABS(temp_value!AN8-Votes!AN8))</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="45">
+      <c r="AO8" s="44">
         <f>MAX(0,temp_cost!AO8-ABS(temp_value!AO8-Votes!AO8))</f>
         <v>0</v>
       </c>
-      <c r="AP8" s="45">
+      <c r="AP8" s="44">
         <f>MAX(0,temp_cost!AP8-ABS(temp_value!AP8-Votes!AP8))</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="45">
+      <c r="AQ8" s="44">
         <f>MAX(0,temp_cost!AQ8-ABS(temp_value!AQ8-Votes!AQ8))</f>
         <v>0</v>
       </c>
-      <c r="AR8" s="45">
+      <c r="AR8" s="44">
         <f>MAX(0,temp_cost!AR8-ABS(temp_value!AR8-Votes!AR8))</f>
         <v>0</v>
       </c>
@@ -2411,171 +2405,171 @@
       <c r="B9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <f>IF(temp_value!C9=Votes!C9,temp_cost!C9,0)</f>
         <v>5</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <f>IF(temp_value!D9=Votes!D9,temp_cost!D9,0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <f>IF(temp_value!E9=Votes!E9,temp_cost!E9,0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <f>IF(temp_value!F9=Votes!F9,temp_cost!F9,0)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <f>IF(temp_value!G9=Votes!G9,temp_cost!G9,0)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <f>IF(temp_value!H9=Votes!H9,temp_cost!H9,0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <f>IF(temp_value!I9=Votes!I9,temp_cost!I9,0)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="44">
         <f>IF(temp_value!J9=Votes!J9,temp_cost!J9,0)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="44">
         <f>IF(temp_value!K9=Votes!K9,temp_cost!K9,0)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="44">
         <f>IF(temp_value!L9=Votes!L9,temp_cost!L9,0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="44">
         <f>IF(temp_value!M9=Votes!M9,temp_cost!M9,0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="44">
         <f>IF(temp_value!N9=Votes!N9,temp_cost!N9,0)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="44">
         <f>IF(temp_value!O9=Votes!O9,temp_cost!O9,0)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="44">
         <f>IF(temp_value!P9=Votes!P9,temp_cost!P9,0)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="44">
         <f>IF(temp_value!Q9=Votes!Q9,temp_cost!Q9,0)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="45">
+      <c r="R9" s="44">
         <f>IF(temp_value!R9=Votes!R9,temp_cost!R9,0)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="45">
+      <c r="S9" s="44">
         <f>IF(temp_value!S9=Votes!S9,temp_cost!S9,0)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="45">
+      <c r="T9" s="44">
         <f>IF(temp_value!T9=Votes!T9,temp_cost!T9,0)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="44">
         <f>IF(temp_value!U9=Votes!U9,temp_cost!U9,0)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="45">
+      <c r="V9" s="44">
         <f>IF(temp_value!V9=Votes!V9,temp_cost!V9,0)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="45">
+      <c r="W9" s="44">
         <f>IF(temp_value!W9=Votes!W9,temp_cost!W9,0)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="45">
+      <c r="X9" s="44">
         <f>IF(temp_value!X9=Votes!X9,temp_cost!X9,0)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="45">
+      <c r="Y9" s="44">
         <f>IF(temp_value!Y9=Votes!Y9,temp_cost!Y9,0)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="Z9" s="44">
         <f>IF(temp_value!Z9=Votes!Z9,temp_cost!Z9,0)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="AA9" s="44">
         <f>IF(temp_value!AA9=Votes!AA9,temp_cost!AA9,0)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="45">
+      <c r="AB9" s="44">
         <f>IF(temp_value!AB9=Votes!AB9,temp_cost!AB9,0)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="45">
+      <c r="AC9" s="44">
         <f>IF(temp_value!AC9=Votes!AC9,temp_cost!AC9,0)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="45">
+      <c r="AD9" s="44">
         <f>IF(temp_value!AD9=Votes!AD9,temp_cost!AD9,0)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="45">
+      <c r="AE9" s="44">
         <f>IF(temp_value!AE9=Votes!AE9,temp_cost!AE9,0)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="45">
+      <c r="AF9" s="44">
         <f>IF(temp_value!AF9=Votes!AF9,temp_cost!AF9,0)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="45">
+      <c r="AG9" s="44">
         <f>IF(temp_value!AG9=Votes!AG9,temp_cost!AG9,0)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="45">
+      <c r="AH9" s="44">
         <f>IF(temp_value!AH9=Votes!AH9,temp_cost!AH9,0)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="45">
+      <c r="AI9" s="44">
         <f>IF(temp_value!AI9=Votes!AI9,temp_cost!AI9,0)</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="45">
+      <c r="AJ9" s="44">
         <f>IF(temp_value!AJ9=Votes!AJ9,temp_cost!AJ9,0)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="45">
+      <c r="AK9" s="44">
         <f>IF(temp_value!AK9=Votes!AK9,temp_cost!AK9,0)</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="45">
+      <c r="AL9" s="44">
         <f>IF(temp_value!AL9=Votes!AL9,temp_cost!AL9,0)</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="45">
+      <c r="AM9" s="44">
         <f>IF(temp_value!AM9=Votes!AM9,temp_cost!AM9,0)</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="45">
+      <c r="AN9" s="44">
         <f>IF(temp_value!AN9=Votes!AN9,temp_cost!AN9,0)</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="45">
+      <c r="AO9" s="44">
         <f>IF(temp_value!AO9=Votes!AO9,temp_cost!AO9,0)</f>
         <v>0</v>
       </c>
-      <c r="AP9" s="45">
+      <c r="AP9" s="44">
         <f>IF(temp_value!AP9=Votes!AP9,temp_cost!AP9,0)</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="45">
+      <c r="AQ9" s="44">
         <f>IF(temp_value!AQ9=Votes!AQ9,temp_cost!AQ9,0)</f>
         <v>0</v>
       </c>
-      <c r="AR9" s="45">
+      <c r="AR9" s="44">
         <f>IF(temp_value!AR9=Votes!AR9,temp_cost!AR9,0)</f>
         <v>0</v>
       </c>
@@ -2587,171 +2581,171 @@
       <c r="B10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <f>IF(temp_value!C10=Votes!C10,temp_cost!C10,0)</f>
         <v>5</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <f>IF(temp_value!D10=Votes!D10,temp_cost!D10,0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <f>IF(temp_value!E10=Votes!E10,temp_cost!E10,0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <f>IF(temp_value!F10=Votes!F10,temp_cost!F10,0)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <f>IF(temp_value!G10=Votes!G10,temp_cost!G10,0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <f>IF(temp_value!H10=Votes!H10,temp_cost!H10,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <f>IF(temp_value!I10=Votes!I10,temp_cost!I10,0)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <f>IF(temp_value!J10=Votes!J10,temp_cost!J10,0)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="44">
         <f>IF(temp_value!K10=Votes!K10,temp_cost!K10,0)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="44">
         <f>IF(temp_value!L10=Votes!L10,temp_cost!L10,0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="44">
         <f>IF(temp_value!M10=Votes!M10,temp_cost!M10,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="44">
         <f>IF(temp_value!N10=Votes!N10,temp_cost!N10,0)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="44">
         <f>IF(temp_value!O10=Votes!O10,temp_cost!O10,0)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="44">
         <f>IF(temp_value!P10=Votes!P10,temp_cost!P10,0)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="44">
         <f>IF(temp_value!Q10=Votes!Q10,temp_cost!Q10,0)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="44">
         <f>IF(temp_value!R10=Votes!R10,temp_cost!R10,0)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S10" s="44">
         <f>IF(temp_value!S10=Votes!S10,temp_cost!S10,0)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="45">
+      <c r="T10" s="44">
         <f>IF(temp_value!T10=Votes!T10,temp_cost!T10,0)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="45">
+      <c r="U10" s="44">
         <f>IF(temp_value!U10=Votes!U10,temp_cost!U10,0)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="45">
+      <c r="V10" s="44">
         <f>IF(temp_value!V10=Votes!V10,temp_cost!V10,0)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="45">
+      <c r="W10" s="44">
         <f>IF(temp_value!W10=Votes!W10,temp_cost!W10,0)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="45">
+      <c r="X10" s="44">
         <f>IF(temp_value!X10=Votes!X10,temp_cost!X10,0)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="45">
+      <c r="Y10" s="44">
         <f>IF(temp_value!Y10=Votes!Y10,temp_cost!Y10,0)</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="45">
+      <c r="Z10" s="44">
         <f>IF(temp_value!Z10=Votes!Z10,temp_cost!Z10,0)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="45">
+      <c r="AA10" s="44">
         <f>IF(temp_value!AA10=Votes!AA10,temp_cost!AA10,0)</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="45">
+      <c r="AB10" s="44">
         <f>IF(temp_value!AB10=Votes!AB10,temp_cost!AB10,0)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="45">
+      <c r="AC10" s="44">
         <f>IF(temp_value!AC10=Votes!AC10,temp_cost!AC10,0)</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="45">
+      <c r="AD10" s="44">
         <f>IF(temp_value!AD10=Votes!AD10,temp_cost!AD10,0)</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="45">
+      <c r="AE10" s="44">
         <f>IF(temp_value!AE10=Votes!AE10,temp_cost!AE10,0)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="45">
+      <c r="AF10" s="44">
         <f>IF(temp_value!AF10=Votes!AF10,temp_cost!AF10,0)</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="45">
+      <c r="AG10" s="44">
         <f>IF(temp_value!AG10=Votes!AG10,temp_cost!AG10,0)</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="45">
+      <c r="AH10" s="44">
         <f>IF(temp_value!AH10=Votes!AH10,temp_cost!AH10,0)</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="45">
+      <c r="AI10" s="44">
         <f>IF(temp_value!AI10=Votes!AI10,temp_cost!AI10,0)</f>
         <v>0</v>
       </c>
-      <c r="AJ10" s="45">
+      <c r="AJ10" s="44">
         <f>IF(temp_value!AJ10=Votes!AJ10,temp_cost!AJ10,0)</f>
         <v>0</v>
       </c>
-      <c r="AK10" s="45">
+      <c r="AK10" s="44">
         <f>IF(temp_value!AK10=Votes!AK10,temp_cost!AK10,0)</f>
         <v>0</v>
       </c>
-      <c r="AL10" s="45">
+      <c r="AL10" s="44">
         <f>IF(temp_value!AL10=Votes!AL10,temp_cost!AL10,0)</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="45">
+      <c r="AM10" s="44">
         <f>IF(temp_value!AM10=Votes!AM10,temp_cost!AM10,0)</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="45">
+      <c r="AN10" s="44">
         <f>IF(temp_value!AN10=Votes!AN10,temp_cost!AN10,0)</f>
         <v>0</v>
       </c>
-      <c r="AO10" s="45">
+      <c r="AO10" s="44">
         <f>IF(temp_value!AO10=Votes!AO10,temp_cost!AO10,0)</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="45">
+      <c r="AP10" s="44">
         <f>IF(temp_value!AP10=Votes!AP10,temp_cost!AP10,0)</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="45">
+      <c r="AQ10" s="44">
         <f>IF(temp_value!AQ10=Votes!AQ10,temp_cost!AQ10,0)</f>
         <v>0</v>
       </c>
-      <c r="AR10" s="45">
+      <c r="AR10" s="44">
         <f>IF(temp_value!AR10=Votes!AR10,temp_cost!AR10,0)</f>
         <v>0</v>
       </c>
@@ -2780,174 +2774,174 @@
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="25">
         <f>SUM(C5:C10)</f>
         <v>70</v>
       </c>
       <c r="D12" s="25">
-        <f t="shared" ref="D12:R12" si="0">SUM(D5:D10)</f>
-        <v>0</v>
+        <f t="shared" ref="D12:P12" si="0">SUM(D5:D10)</f>
+        <v>2.5</v>
       </c>
       <c r="E12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" s="25">
         <f t="shared" ref="Q12:AR12" si="1">SUM(Q5:Q10)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AA12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AB12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AF12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AJ12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AK12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AM12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AN12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AP12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AR12" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -3125,9 +3119,9 @@
   <conditionalFormatting sqref="C12:AR12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -3137,9 +3131,9 @@
   <conditionalFormatting sqref="C12:AR12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3151,7 +3145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6C3CA3-7E74-4222-A1D2-66CF0226CE6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3164,13 +3158,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="5" spans="2:44">
       <c r="B5" s="26">
@@ -4228,7 +4222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97254890-A68B-4A21-B7DF-272BE977F9F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4238,13 +4232,13 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="2:44">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="5" spans="2:44">
       <c r="B5" s="27">
